--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hbegf-Egfr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H2">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I2">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J2">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N2">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O2">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P2">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q2">
-        <v>4.078761794038</v>
+        <v>91.59798235905626</v>
       </c>
       <c r="R2">
-        <v>16.315047176152</v>
+        <v>366.391929436225</v>
       </c>
       <c r="S2">
-        <v>0.001619455658822011</v>
+        <v>0.02435001479364252</v>
       </c>
       <c r="T2">
-        <v>0.0009420876348871633</v>
+        <v>0.01617187001378329</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H3">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I3">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J3">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N3">
         <v>150.307245</v>
       </c>
       <c r="O3">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P3">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q3">
-        <v>358.6234168039051</v>
+        <v>1712.648973104438</v>
       </c>
       <c r="R3">
-        <v>2151.74050082343</v>
+        <v>10275.89383862663</v>
       </c>
       <c r="S3">
-        <v>0.142389958290307</v>
+        <v>0.4552832579645415</v>
       </c>
       <c r="T3">
-        <v>0.1242489891340771</v>
+        <v>0.4535591700652677</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H4">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I4">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J4">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N4">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O4">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P4">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q4">
-        <v>2.899947331079334</v>
+        <v>9.516753252095834</v>
       </c>
       <c r="R4">
-        <v>17.399683986476</v>
+        <v>57.100519512575</v>
       </c>
       <c r="S4">
-        <v>0.001151412206142299</v>
+        <v>0.002529892869993634</v>
       </c>
       <c r="T4">
-        <v>0.001004718341149742</v>
+        <v>0.002520312553548186</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H5">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I5">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J5">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N5">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O5">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P5">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q5">
-        <v>156.7376958398255</v>
+        <v>446.6945278497437</v>
       </c>
       <c r="R5">
-        <v>626.950783359302</v>
+        <v>1786.778111398975</v>
       </c>
       <c r="S5">
-        <v>0.06223205994759393</v>
+        <v>0.1187473575426961</v>
       </c>
       <c r="T5">
-        <v>0.03620232134841584</v>
+        <v>0.07886511966974706</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H6">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I6">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J6">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N6">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O6">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P6">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q6">
-        <v>7.365600523145666</v>
+        <v>63.68963875839583</v>
       </c>
       <c r="R6">
-        <v>44.193603138874</v>
+        <v>382.137832550375</v>
       </c>
       <c r="S6">
-        <v>0.002924481509380217</v>
+        <v>0.01693098042148474</v>
       </c>
       <c r="T6">
-        <v>0.002551892532624806</v>
+        <v>0.01686686539428602</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H7">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I7">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J7">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N7">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O7">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P7">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q7">
-        <v>2.033838368465333</v>
+        <v>3.749916563533334</v>
       </c>
       <c r="R7">
-        <v>12.203030210792</v>
+        <v>22.4994993812</v>
       </c>
       <c r="S7">
-        <v>0.0008075271911576173</v>
+        <v>0.000996861736965257</v>
       </c>
       <c r="T7">
-        <v>0.0007046454567747754</v>
+        <v>0.0009930867743944069</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>11.166373</v>
       </c>
       <c r="I8">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J8">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N8">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O8">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P8">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q8">
-        <v>2.120992997360667</v>
+        <v>9.973947665386834</v>
       </c>
       <c r="R8">
-        <v>12.725957984164</v>
+        <v>59.84368599232101</v>
       </c>
       <c r="S8">
-        <v>0.0008421315794706075</v>
+        <v>0.002651431472051127</v>
       </c>
       <c r="T8">
-        <v>0.0007348411273060226</v>
+        <v>0.002641390907552547</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>11.166373</v>
       </c>
       <c r="I9">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J9">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N9">
         <v>150.307245</v>
       </c>
       <c r="O9">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P9">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q9">
         <v>186.487418030265</v>
@@ -1013,10 +1013,10 @@
         <v>1678.386762272385</v>
       </c>
       <c r="S9">
-        <v>0.07404406525276111</v>
+        <v>0.04957501541971667</v>
       </c>
       <c r="T9">
-        <v>0.09691589599608179</v>
+        <v>0.07408092365486481</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>11.166373</v>
       </c>
       <c r="I10">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J10">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N10">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O10">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P10">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q10">
-        <v>1.507998822320222</v>
+        <v>1.036262987854111</v>
       </c>
       <c r="R10">
-        <v>13.571989400882</v>
+        <v>9.326366890687</v>
       </c>
       <c r="S10">
-        <v>0.0005987447538302258</v>
+        <v>0.0002754757084652861</v>
       </c>
       <c r="T10">
-        <v>0.0007836939272894109</v>
+        <v>0.0004116487862850026</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>11.166373</v>
       </c>
       <c r="I11">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J11">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N11">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O11">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P11">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q11">
-        <v>81.50501845551484</v>
+        <v>48.63980328435183</v>
       </c>
       <c r="R11">
-        <v>489.030110733089</v>
+        <v>291.838819706111</v>
       </c>
       <c r="S11">
-        <v>0.03236123363544142</v>
+        <v>0.01293019670336363</v>
       </c>
       <c r="T11">
-        <v>0.02823830145478037</v>
+        <v>0.01288123203075264</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>11.166373</v>
       </c>
       <c r="I12">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J12">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N12">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O12">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P12">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q12">
-        <v>3.830178843438111</v>
+        <v>6.93505585432611</v>
       </c>
       <c r="R12">
-        <v>34.471609590943</v>
+        <v>62.41550268893499</v>
       </c>
       <c r="S12">
-        <v>0.001520756816780265</v>
+        <v>0.001843585505908056</v>
       </c>
       <c r="T12">
-        <v>0.001990510772028588</v>
+        <v>0.002754906195350823</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>11.166373</v>
       </c>
       <c r="I13">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J13">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N13">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O13">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P13">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q13">
-        <v>1.057614333738222</v>
+        <v>0.4083220021991111</v>
       </c>
       <c r="R13">
-        <v>9.518529003644</v>
+        <v>3.674898019792</v>
       </c>
       <c r="S13">
-        <v>0.0004199214379538434</v>
+        <v>0.0001085465698921595</v>
       </c>
       <c r="T13">
-        <v>0.000549633009321327</v>
+        <v>0.0001622032810095789</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H14">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I14">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J14">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N14">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O14">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P14">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q14">
-        <v>0.8949108109286666</v>
+        <v>4.181551762503501</v>
       </c>
       <c r="R14">
-        <v>5.369464865572</v>
+        <v>25.08931057502101</v>
       </c>
       <c r="S14">
-        <v>0.0003553206708511014</v>
+        <v>0.00111160578710362</v>
       </c>
       <c r="T14">
-        <v>0.0003100515984538835</v>
+        <v>0.001107396306406095</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H15">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I15">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J15">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N15">
         <v>150.307245</v>
       </c>
       <c r="O15">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P15">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q15">
-        <v>78.68465700034501</v>
+        <v>78.18436768576501</v>
       </c>
       <c r="R15">
-        <v>708.161913003105</v>
+        <v>703.6593091718851</v>
       </c>
       <c r="S15">
-        <v>0.03124142067524979</v>
+        <v>0.02078419699592583</v>
       </c>
       <c r="T15">
-        <v>0.04089173476086851</v>
+        <v>0.03105823564243384</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H16">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I16">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J16">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N16">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O16">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P16">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q16">
-        <v>0.6362701105762223</v>
+        <v>0.4344505775096666</v>
       </c>
       <c r="R16">
-        <v>5.726430995186001</v>
+        <v>3.910055197587</v>
       </c>
       <c r="S16">
-        <v>0.0002526284404787111</v>
+        <v>0.0001154924782949762</v>
       </c>
       <c r="T16">
-        <v>0.0003306640657763467</v>
+        <v>0.0001725826889784185</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H17">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I17">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J17">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N17">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O17">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P17">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q17">
-        <v>34.38942148868284</v>
+        <v>20.3921117269685</v>
       </c>
       <c r="R17">
-        <v>206.336528932097</v>
+        <v>122.352670361811</v>
       </c>
       <c r="S17">
-        <v>0.01365417890176104</v>
+        <v>0.005420951525753783</v>
       </c>
       <c r="T17">
-        <v>0.01191458966889199</v>
+        <v>0.005400423213401849</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H18">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I18">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J18">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N18">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O18">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P18">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q18">
-        <v>1.616067784782111</v>
+        <v>2.907504230381666</v>
       </c>
       <c r="R18">
-        <v>14.544610063039</v>
+        <v>26.167538073435</v>
       </c>
       <c r="S18">
-        <v>0.0006416530925956199</v>
+        <v>0.0007729184551778725</v>
       </c>
       <c r="T18">
-        <v>0.0008398564311032666</v>
+        <v>0.001154987297224229</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H19">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I19">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J19">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N19">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O19">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P19">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q19">
-        <v>0.4462393332902222</v>
+        <v>0.1711879433546667</v>
       </c>
       <c r="R19">
-        <v>4.016153999611999</v>
+        <v>1.540691490192</v>
       </c>
       <c r="S19">
-        <v>0.0001771774989513102</v>
+        <v>4.550786868688314E-05</v>
       </c>
       <c r="T19">
-        <v>0.0002319067166638416</v>
+        <v>6.800330604734021E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H20">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I20">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J20">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N20">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O20">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P20">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q20">
-        <v>4.634650246556</v>
+        <v>30.47541745550225</v>
       </c>
       <c r="R20">
-        <v>18.538600986224</v>
+        <v>121.901669822009</v>
       </c>
       <c r="S20">
-        <v>0.001840168891308394</v>
+        <v>0.008101454276307455</v>
       </c>
       <c r="T20">
-        <v>0.001070483374559743</v>
+        <v>0.005380516873988079</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H21">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I21">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J21">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N21">
         <v>150.307245</v>
       </c>
       <c r="O21">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P21">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q21">
-        <v>407.4996754016101</v>
+        <v>569.8126865447774</v>
       </c>
       <c r="R21">
-        <v>2444.998052409661</v>
+        <v>3418.876119268665</v>
       </c>
       <c r="S21">
-        <v>0.1617960765107436</v>
+        <v>0.1514765608327694</v>
       </c>
       <c r="T21">
-        <v>0.1411827013203653</v>
+        <v>0.1509029423194883</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H22">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I22">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J22">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N22">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O22">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P22">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q22">
-        <v>3.295176892318668</v>
+        <v>3.166303675137166</v>
       </c>
       <c r="R22">
-        <v>19.77106135391201</v>
+        <v>18.997822050823</v>
       </c>
       <c r="S22">
-        <v>0.001308336484098016</v>
+        <v>0.0008417165896573034</v>
       </c>
       <c r="T22">
-        <v>0.001141649927763741</v>
+        <v>0.0008385291379742919</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H23">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I23">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J23">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N23">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O23">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P23">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q23">
-        <v>178.099246131631</v>
+        <v>148.6190182437297</v>
       </c>
       <c r="R23">
-        <v>712.3969845265242</v>
+        <v>594.4760729749189</v>
       </c>
       <c r="S23">
-        <v>0.07071357596842216</v>
+        <v>0.03950824242684478</v>
       </c>
       <c r="T23">
-        <v>0.04113628253765385</v>
+        <v>0.02623908717980681</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H24">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I24">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J24">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N24">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O24">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P24">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q24">
-        <v>8.369447397131335</v>
+        <v>21.19007732226916</v>
       </c>
       <c r="R24">
-        <v>50.21668438278801</v>
+        <v>127.140463933615</v>
       </c>
       <c r="S24">
-        <v>0.003323054797735318</v>
+        <v>0.005633079277369785</v>
       </c>
       <c r="T24">
-        <v>0.002899686216734183</v>
+        <v>0.005611747669743398</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H25">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I25">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J25">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N25">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O25">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P25">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q25">
-        <v>2.311027211650667</v>
+        <v>1.247628711394666</v>
       </c>
       <c r="R25">
-        <v>13.866163269904</v>
+        <v>7.485772268368</v>
       </c>
       <c r="S25">
-        <v>0.0009175838856463648</v>
+        <v>0.0003316642659261549</v>
       </c>
       <c r="T25">
-        <v>0.0008006805508351667</v>
+        <v>0.0003304083041979305</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H26">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I26">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J26">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N26">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O26">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P26">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q26">
-        <v>6.417325580219334</v>
+        <v>6.907623931644335</v>
       </c>
       <c r="R26">
-        <v>38.503953481316</v>
+        <v>41.44574358986601</v>
       </c>
       <c r="S26">
-        <v>0.002547972828562938</v>
+        <v>0.001836293121229746</v>
       </c>
       <c r="T26">
-        <v>0.002223352349360096</v>
+        <v>0.001829339360698366</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H27">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I27">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J27">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N27">
         <v>150.307245</v>
       </c>
       <c r="O27">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P27">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q27">
-        <v>564.2406550157851</v>
+        <v>129.15497403369</v>
       </c>
       <c r="R27">
-        <v>5078.165895142066</v>
+        <v>1162.39476630321</v>
       </c>
       <c r="S27">
-        <v>0.2240294402674888</v>
+        <v>0.03433400438958392</v>
       </c>
       <c r="T27">
-        <v>0.2932309815635726</v>
+        <v>0.05130598016796532</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H28">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I28">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J28">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N28">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O28">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P28">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q28">
-        <v>4.562636194206445</v>
+        <v>0.7176812285891111</v>
       </c>
       <c r="R28">
-        <v>41.06372574785801</v>
+        <v>6.459131057302</v>
       </c>
       <c r="S28">
-        <v>0.001811576006878943</v>
+        <v>0.0001907852998853374</v>
       </c>
       <c r="T28">
-        <v>0.002371162513461937</v>
+        <v>0.000285094237805422</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H29">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I29">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J29">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N29">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O29">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P29">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q29">
-        <v>246.6034732324402</v>
+        <v>33.68630761553433</v>
       </c>
       <c r="R29">
-        <v>1479.620839394641</v>
+        <v>202.117845693206</v>
       </c>
       <c r="S29">
-        <v>0.09791289866331353</v>
+        <v>0.008955023545890962</v>
       </c>
       <c r="T29">
-        <v>0.0854384594825195</v>
+        <v>0.008921112244600841</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H30">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I30">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J30">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N30">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O30">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P30">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q30">
-        <v>11.58867789728522</v>
+        <v>4.802988685501111</v>
       </c>
       <c r="R30">
-        <v>104.298101075567</v>
+        <v>43.22689816950999</v>
       </c>
       <c r="S30">
-        <v>0.004601237077991829</v>
+        <v>0.001276805913553909</v>
       </c>
       <c r="T30">
-        <v>0.006022535534505144</v>
+        <v>0.001907956267956066</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H31">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I31">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J31">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N31">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O31">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P31">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q31">
-        <v>3.199942445048445</v>
+        <v>0.2827902179591111</v>
       </c>
       <c r="R31">
-        <v>28.799482005436</v>
+        <v>2.545111961632</v>
       </c>
       <c r="S31">
-        <v>0.001270524037003904</v>
+        <v>7.517573873853935E-05</v>
       </c>
       <c r="T31">
-        <v>0.001662982374218042</v>
+        <v>0.0001123365896114858</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H32">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I32">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J32">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.569834</v>
+        <v>2.6796385</v>
       </c>
       <c r="N32">
-        <v>1.139668</v>
+        <v>5.359277000000001</v>
       </c>
       <c r="O32">
-        <v>0.007670604929513537</v>
+        <v>0.03934793987875059</v>
       </c>
       <c r="P32">
-        <v>0.005687058042690201</v>
+        <v>0.02842274181890429</v>
       </c>
       <c r="Q32">
-        <v>1.172547801689333</v>
+        <v>4.879481474085167</v>
       </c>
       <c r="R32">
-        <v>7.035286810135999</v>
+        <v>29.276888844511</v>
       </c>
       <c r="S32">
-        <v>0.0004655553004984848</v>
+        <v>0.00129714042841612</v>
       </c>
       <c r="T32">
-        <v>0.0004062419581232924</v>
+        <v>0.001292228356475919</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H33">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I33">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J33">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>50.10241500000001</v>
+        <v>50.102415</v>
       </c>
       <c r="N33">
         <v>150.307245</v>
       </c>
       <c r="O33">
-        <v>0.6744347151618421</v>
+        <v>0.7357062578404556</v>
       </c>
       <c r="P33">
-        <v>0.7500482829664926</v>
+        <v>0.7971493203553003</v>
       </c>
       <c r="Q33">
-        <v>103.09577274711</v>
+        <v>91.23387568861499</v>
       </c>
       <c r="R33">
-        <v>927.8619547239902</v>
+        <v>821.1048811975348</v>
       </c>
       <c r="S33">
-        <v>0.04093375416529164</v>
+        <v>0.02425322223791837</v>
       </c>
       <c r="T33">
-        <v>0.05357798019152724</v>
+        <v>0.03624206850528033</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H34">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I34">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J34">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.4051446666666667</v>
+        <v>0.2784063333333333</v>
       </c>
       <c r="N34">
-        <v>1.215434</v>
+        <v>0.8352189999999999</v>
       </c>
       <c r="O34">
-        <v>0.005453701739979455</v>
+        <v>0.004088131912518571</v>
       </c>
       <c r="P34">
-        <v>0.00606513800954236</v>
+        <v>0.00442955532980352</v>
       </c>
       <c r="Q34">
-        <v>0.8336664506964446</v>
+        <v>0.5069633630685555</v>
       </c>
       <c r="R34">
-        <v>7.502998056268001</v>
+        <v>4.562670267616999</v>
       </c>
       <c r="S34">
-        <v>0.0003310038485512597</v>
+        <v>0.0001347689662220337</v>
       </c>
       <c r="T34">
-        <v>0.0004332492341011819</v>
+        <v>0.0002013879252121994</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H35">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I35">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J35">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>21.8974465</v>
+        <v>13.0677535</v>
       </c>
       <c r="N35">
-        <v>43.794893</v>
+        <v>26.135507</v>
       </c>
       <c r="O35">
-        <v>0.2947641963565862</v>
+        <v>0.1918875173156127</v>
       </c>
       <c r="P35">
-        <v>0.2185409246064703</v>
+        <v>0.1386087652806835</v>
       </c>
       <c r="Q35">
-        <v>45.05839026134768</v>
+        <v>23.79569524440016</v>
       </c>
       <c r="R35">
-        <v>270.350341568086</v>
+        <v>142.774171466401</v>
       </c>
       <c r="S35">
-        <v>0.01789024924005411</v>
+        <v>0.006325745571063502</v>
       </c>
       <c r="T35">
-        <v>0.01561097011420876</v>
+        <v>0.00630179094237429</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H36">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I36">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J36">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.029030333333333</v>
+        <v>1.863198333333333</v>
       </c>
       <c r="N36">
-        <v>3.087091</v>
+        <v>5.589594999999999</v>
       </c>
       <c r="O36">
-        <v>0.01385190274270336</v>
+        <v>0.02735929342789644</v>
       </c>
       <c r="P36">
-        <v>0.01540489484662773</v>
+        <v>0.02964422543511714</v>
       </c>
       <c r="Q36">
-        <v>2.117436402920222</v>
+        <v>3.392786657620555</v>
       </c>
       <c r="R36">
-        <v>19.056927626282</v>
+        <v>30.53507991858499</v>
       </c>
       <c r="S36">
-        <v>0.0008407194482201062</v>
+        <v>0.0009019238544020769</v>
       </c>
       <c r="T36">
-        <v>0.001100413359631746</v>
+        <v>0.001347762610556613</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H37">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I37">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J37">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.2841426666666667</v>
+        <v>0.1097013333333333</v>
       </c>
       <c r="N37">
-        <v>0.852428</v>
+        <v>0.329104</v>
       </c>
       <c r="O37">
-        <v>0.003824879069375389</v>
+        <v>0.001610859624766094</v>
       </c>
       <c r="P37">
-        <v>0.00425370152817691</v>
+        <v>0.001745391780191372</v>
       </c>
       <c r="Q37">
-        <v>0.5846805546284445</v>
+        <v>0.1997603869635555</v>
       </c>
       <c r="R37">
-        <v>5.262124991656</v>
+        <v>1.797843482672</v>
       </c>
       <c r="S37">
-        <v>0.0002321450186623487</v>
+        <v>5.31034445570996E-05</v>
       </c>
       <c r="T37">
-        <v>0.0003038534203637566</v>
+        <v>7.935352493062976E-05</v>
       </c>
     </row>
   </sheetData>
